--- a/assets/stages/maps/MapEditor/Haruhikage.xlsx
+++ b/assets/stages/maps/MapEditor/Haruhikage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F380F982-E08C-473D-B33D-04068436778A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAEF02B-F2FE-4AA4-86FE-224EC192CCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="14100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2205,7 +2205,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V5:AF5 C6:AF8 H7:P14 S8:S11 V8:V11 Y8:Y11 C8:G16 Q9:AF11 Z12:AF14 J15:K18 B2:AE2 AE3:AE17 B17:AD17 C3:AE5 AD4:AD16 C9:AE17 B3:C17 AA16:AC18">
+  <conditionalFormatting sqref="B2:AE2 C3:AE5 B3:C17 AE3:AE17 AD4:AD16 V5:AF5 C6:AF8 H7:P14 S8:S11 V8:V11 Y8:Y11 C8:G16 Q9:AF11 C9:AE17 Z12:AF14 J15:K18 AA16:AC18 B17:AD17">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
@@ -2855,18 +2855,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="O13:R15"/>
+  <dimension ref="P13:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="13" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O13">
-        <v>1</v>
-      </c>
+    <row r="13" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P13">
         <v>1</v>
       </c>
@@ -2877,10 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O14">
-        <v>1</v>
-      </c>
+    <row r="14" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P14">
         <v>1</v>
       </c>
@@ -2891,10 +2885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O15">
-        <v>1</v>
-      </c>
+    <row r="15" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P15">
         <v>1</v>
       </c>
@@ -2926,26 +2917,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="P14:Q15"/>
+  <dimension ref="Q14:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="P14" sqref="P14:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="14" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P14">
-        <v>11</v>
-      </c>
+    <row r="14" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P15">
-        <v>11</v>
-      </c>
+    <row r="15" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q15">
         <v>11</v>
       </c>

--- a/assets/stages/maps/MapEditor/Haruhikage.xlsx
+++ b/assets/stages/maps/MapEditor/Haruhikage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dusti\Documents\Programming\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAEF02B-F2FE-4AA4-86FE-224EC192CCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113B2EA0-CEC2-4DA2-8879-37B0AE43C927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="14100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="16200" windowHeight="9848" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -422,16 +422,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AC18" sqref="AC18"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Y12:Z15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -725,7 +725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2219,16 +2219,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AC18" sqref="AC18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2262,7 +2262,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2296,7 +2296,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2330,7 +2330,7 @@
       <c r="AE3" s="1"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2364,7 +2364,7 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2398,7 +2398,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="2"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2432,7 +2432,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2466,7 +2466,7 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2500,7 +2500,7 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2534,7 +2534,7 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2568,7 +2568,7 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2602,7 +2602,7 @@
       <c r="AE11" s="3"/>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2627,8 +2627,12 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
+      <c r="Y12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>-1</v>
+      </c>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
@@ -2636,7 +2640,7 @@
       <c r="AE12" s="3"/>
       <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2661,8 +2665,12 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+      <c r="Y13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>-1</v>
+      </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
@@ -2670,7 +2678,7 @@
       <c r="AE13" s="3"/>
       <c r="AF13" s="2"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2695,8 +2703,12 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
+      <c r="Y14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>-1</v>
+      </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
@@ -2704,7 +2716,7 @@
       <c r="AE14" s="3"/>
       <c r="AF14" s="2"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2729,8 +2741,12 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
+      <c r="Y15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>-1</v>
+      </c>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
@@ -2738,7 +2754,7 @@
       <c r="AE15" s="4"/>
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2772,7 +2788,7 @@
       <c r="AE16" s="4"/>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2806,7 +2822,7 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2857,13 +2873,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="P13:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="13" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="16:18" x14ac:dyDescent="0.4">
       <c r="P13">
         <v>1</v>
       </c>
@@ -2874,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="16:18" x14ac:dyDescent="0.4">
       <c r="P14">
         <v>1</v>
       </c>
@@ -2885,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="16:18" x14ac:dyDescent="0.4">
       <c r="P15">
         <v>1</v>
       </c>
@@ -2908,7 +2924,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2923,14 +2939,14 @@
       <selection activeCell="P14" sqref="P14:P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="14" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="17:17" x14ac:dyDescent="0.4">
       <c r="Q14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="17:17" x14ac:dyDescent="0.4">
       <c r="Q15">
         <v>11</v>
       </c>

--- a/assets/stages/maps/MapEditor/Haruhikage.xlsx
+++ b/assets/stages/maps/MapEditor/Haruhikage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dusti\Documents\Programming\portal_2d\assets\stages\maps\MapEditor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113B2EA0-CEC2-4DA2-8879-37B0AE43C927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D244A74-9156-48AD-A5B6-CE73C7047E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="16200" windowHeight="9848" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -422,16 +422,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Y12:Z15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -725,7 +725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2219,16 +2219,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2262,7 +2262,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2296,7 +2296,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2330,7 +2330,7 @@
       <c r="AE3" s="1"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2359,12 +2359,14 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
+      <c r="AC4" s="1">
+        <v>6</v>
+      </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2398,7 +2400,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="2"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2432,7 +2434,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2466,7 +2468,7 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2500,7 +2502,7 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2534,7 +2536,7 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2568,7 +2570,7 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2602,7 +2604,7 @@
       <c r="AE11" s="3"/>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2640,7 +2642,7 @@
       <c r="AE12" s="3"/>
       <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2678,7 +2680,7 @@
       <c r="AE13" s="3"/>
       <c r="AF13" s="2"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2716,11 +2718,13 @@
       <c r="AE14" s="3"/>
       <c r="AF14" s="2"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -2754,7 +2758,7 @@
       <c r="AE15" s="4"/>
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2788,7 +2792,7 @@
       <c r="AE16" s="4"/>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2822,7 +2826,7 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2874,12 +2878,12 @@
   <dimension ref="P13:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="13" spans="16:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P13">
         <v>1</v>
       </c>
@@ -2890,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="16:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P14">
         <v>1</v>
       </c>
@@ -2901,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="16:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="16:18" x14ac:dyDescent="0.25">
       <c r="P15">
         <v>1</v>
       </c>
@@ -2924,7 +2928,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2939,14 +2943,14 @@
       <selection activeCell="P14" sqref="P14:P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="14" spans="17:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="17:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q15">
         <v>11</v>
       </c>
